--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 9 (19, 31, 22, 5, 21)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(19, 31, 22, 5, 21)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.000254089990936372</v>
+        <v>0.0002567018593964017</v>
       </c>
       <c r="E2">
-        <v>0.000254089990936372</v>
+        <v>0.0002567018593964017</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9197758336816657</v>
+        <v>0.9186475293880044</v>
       </c>
       <c r="E3">
-        <v>0.9197758336816657</v>
+        <v>0.9186475293880044</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.0005927106164307664</v>
+        <v>0.0005943758585822261</v>
       </c>
       <c r="E4">
-        <v>0.0005927106164307664</v>
+        <v>0.0005943758585822261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0006971601289488693</v>
+        <v>0.0006934940963239417</v>
       </c>
       <c r="E5">
-        <v>0.0006971601289488693</v>
+        <v>0.0006934940963239417</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1143583410803219</v>
+        <v>0.1143427434842015</v>
       </c>
       <c r="E6">
-        <v>0.1143583410803219</v>
+        <v>0.1143427434842015</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9834332320769161</v>
+        <v>0.8866943030131962</v>
       </c>
       <c r="E7">
-        <v>0.01656676792308387</v>
+        <v>0.1133056969868038</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -537,13 +537,13 @@
         <v>12</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.9847159031512384</v>
+        <v>6.423438187741829E-05</v>
       </c>
       <c r="E8">
-        <v>0.01528409684876164</v>
+        <v>0.9999357656181226</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9840511501926379</v>
+        <v>0.9876016543609304</v>
       </c>
       <c r="E9">
-        <v>0.01594884980736211</v>
+        <v>0.01239834563906961</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9823700113930878</v>
+        <v>0.001106210598497721</v>
       </c>
       <c r="E10">
-        <v>0.01762998860691223</v>
+        <v>0.9988937894015023</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9845375183271239</v>
+        <v>0.9999999999558611</v>
       </c>
       <c r="E11">
-        <v>0.01546248167287612</v>
+        <v>4.413891474541742E-11</v>
       </c>
       <c r="F11">
-        <v>0.2727473080158234</v>
+        <v>1.922445058822632</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0.001061769815237757</v>
+        <v>0.001070144132705447</v>
       </c>
       <c r="E12">
-        <v>0.001061769815237757</v>
+        <v>0.001070144132705447</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.999664781401524</v>
+        <v>0.9996322199442315</v>
       </c>
       <c r="E13">
-        <v>0.999664781401524</v>
+        <v>0.9996322199442315</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0007180897738374344</v>
+        <v>0.0007198397294128899</v>
       </c>
       <c r="E14">
-        <v>0.0007180897738374344</v>
+        <v>0.0007198397294128899</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.001687589047622559</v>
+        <v>0.001677314130025276</v>
       </c>
       <c r="E15">
-        <v>0.001687589047622559</v>
+        <v>0.001677314130025276</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.03083855146070815</v>
+        <v>0.03077223024567848</v>
       </c>
       <c r="E16">
-        <v>0.03083855146070815</v>
+        <v>0.03077223024567848</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9990317145823955</v>
+        <v>0.9671782497501139</v>
       </c>
       <c r="E17">
-        <v>0.0009682854176045197</v>
+        <v>0.03282175024988609</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.9991619163747523</v>
+        <v>0.0005039164600994533</v>
       </c>
       <c r="E18">
-        <v>0.0008380836252477319</v>
+        <v>0.9994960835399005</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9991018801466137</v>
+        <v>0.9537390256791032</v>
       </c>
       <c r="E19">
-        <v>0.0008981198533862811</v>
+        <v>0.04626097432089682</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.998940932862096</v>
+        <v>0.003238113777760553</v>
       </c>
       <c r="E20">
-        <v>0.001059067137904046</v>
+        <v>0.9967618862222395</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9991654745523854</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="E21">
-        <v>0.0008345254476146424</v>
+        <v>6.661338147750939E-16</v>
       </c>
       <c r="F21">
-        <v>0.80401211977005</v>
+        <v>2.13493537902832</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
